--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Adam15-Itgav.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H2">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J2">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>356.7724897739483</v>
+        <v>649.656250165716</v>
       </c>
       <c r="R2">
-        <v>356.7724897739483</v>
+        <v>5846.906251491444</v>
       </c>
       <c r="S2">
-        <v>0.09679793663973246</v>
+        <v>0.1340630353364149</v>
       </c>
       <c r="T2">
-        <v>0.09679793663973246</v>
+        <v>0.1340630353364149</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H3">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J3">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>1145.940285963009</v>
+        <v>1595.916701819489</v>
       </c>
       <c r="R3">
-        <v>1145.940285963009</v>
+        <v>14363.2503163754</v>
       </c>
       <c r="S3">
-        <v>0.3109114586268867</v>
+        <v>0.3293333007039109</v>
       </c>
       <c r="T3">
-        <v>0.3109114586268867</v>
+        <v>0.3293333007039109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.2390935041751</v>
+        <v>39.288329</v>
       </c>
       <c r="H4">
-        <v>28.2390935041751</v>
+        <v>117.864987</v>
       </c>
       <c r="I4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="J4">
-        <v>0.556916001703644</v>
+        <v>0.632237668435316</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>549.9374709544024</v>
+        <v>818.1884484523409</v>
       </c>
       <c r="R4">
-        <v>549.9374709544024</v>
+        <v>7363.696036071069</v>
       </c>
       <c r="S4">
-        <v>0.1492066064370248</v>
+        <v>0.1688413323949903</v>
       </c>
       <c r="T4">
-        <v>0.1492066064370248</v>
+        <v>0.1688413323949903</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H5">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J5">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>243.426340020849</v>
+        <v>319.869403351932</v>
       </c>
       <c r="R5">
-        <v>243.426340020849</v>
+        <v>2878.824630167388</v>
       </c>
       <c r="S5">
-        <v>0.06604535975492334</v>
+        <v>0.0660082360689509</v>
       </c>
       <c r="T5">
-        <v>0.06604535975492334</v>
+        <v>0.06600823606895088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H6">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J6">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>781.876567532337</v>
+        <v>785.7769752544788</v>
       </c>
       <c r="R6">
-        <v>781.876567532337</v>
+        <v>7071.992777290308</v>
       </c>
       <c r="S6">
-        <v>0.2121352980215493</v>
+        <v>0.1621529022051447</v>
       </c>
       <c r="T6">
-        <v>0.2121352980215493</v>
+        <v>0.1621529022051447</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.2675707187607</v>
+        <v>19.344283</v>
       </c>
       <c r="H7">
-        <v>19.2675707187607</v>
+        <v>58.032849</v>
       </c>
       <c r="I7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211948</v>
       </c>
       <c r="J7">
-        <v>0.3799845220119387</v>
+        <v>0.3112930657211947</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N7">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P7">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q7">
-        <v>375.2230612835984</v>
+        <v>402.849123315807</v>
       </c>
       <c r="R7">
-        <v>375.2230612835984</v>
+        <v>3625.642109842263</v>
       </c>
       <c r="S7">
-        <v>0.101803864235466</v>
+        <v>0.08313192744709914</v>
       </c>
       <c r="T7">
-        <v>0.101803864235466</v>
+        <v>0.08313192744709913</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H8">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J8">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N8">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P8">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q8">
-        <v>40.4228953532626</v>
+        <v>58.02503287772</v>
       </c>
       <c r="R8">
-        <v>40.4228953532626</v>
+        <v>522.22529589948</v>
       </c>
       <c r="S8">
-        <v>0.01096736148484666</v>
+        <v>0.0119740432437895</v>
       </c>
       <c r="T8">
-        <v>0.01096736148484666</v>
+        <v>0.0119740432437895</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H9">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J9">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N9">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P9">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q9">
-        <v>129.8368724839754</v>
+        <v>142.5417196702978</v>
       </c>
       <c r="R9">
-        <v>129.8368724839754</v>
+        <v>1282.87547703268</v>
       </c>
       <c r="S9">
-        <v>0.03522676696336073</v>
+        <v>0.02941490302940664</v>
       </c>
       <c r="T9">
-        <v>0.03522676696336073</v>
+        <v>0.02941490302940664</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.19953458943409</v>
+        <v>3.509096666666667</v>
       </c>
       <c r="H10">
-        <v>3.19953458943409</v>
+        <v>10.52729</v>
       </c>
       <c r="I10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="J10">
-        <v>0.06309947628441745</v>
+        <v>0.05646926584348937</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N10">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P10">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q10">
-        <v>62.30879755698852</v>
+        <v>73.07774166647</v>
       </c>
       <c r="R10">
-        <v>62.30879755698852</v>
+        <v>657.6996749982301</v>
       </c>
       <c r="S10">
-        <v>0.01690534783621006</v>
+        <v>0.01508031957029324</v>
       </c>
       <c r="T10">
-        <v>0.01690534783621006</v>
+        <v>0.01508031957029324</v>
       </c>
     </row>
   </sheetData>
